--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cb720f\Desktop\UAS\TASK\Seguimiento Becarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\verti\Desktop\misilnl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F956046-A350-4576-96F3-5CB151D9209D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8805"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>REQ ID</t>
   </si>
@@ -87,11 +88,20 @@
     <t>In case that the sequencing conditions in REQ-24 are met for a WPT which is after the current one, this WPT is sequenced and also all the WPTs behind this one.
 If the A/C passes two WPTs without meeting the conditions in REQ-24, at least the first WPT shall be sequenced</t>
   </si>
+  <si>
+    <t>REQ-27</t>
+  </si>
+  <si>
+    <t>The guidance system must operate with an operating frequency of 5 Hz. Fixed step size = 0.2 s</t>
+  </si>
+  <si>
+    <t>GDC_01_ SysFreq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -440,20 +450,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.88671875" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -475,7 +485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -486,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -497,7 +507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -508,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -519,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -530,10 +540,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" s="3" customFormat="1" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
